--- a/文档/开发计划表 .xlsx
+++ b/文档/开发计划表 .xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\qq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\program\SpringBoot\hotelManagementSystem\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B297FDF4-9009-4A54-A637-B712EBCB6AB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C25DF8-9F99-4D38-923F-67531A274FBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="3105" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="附件1编码开发计划表 " sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="124">
   <si>
     <r>
       <t xml:space="preserve">酒店管理系统后台 </t>
@@ -430,13 +430,17 @@
   <si>
     <t>赵浩洋</t>
   </si>
+  <si>
+    <t>python</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy&quot;.&quot;m&quot;.&quot;d"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;.&quot;m&quot;.&quot;d"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -834,22 +838,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -858,13 +853,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -897,37 +910,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -937,12 +947,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1228,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1249,59 +1253,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="52.5" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
       <c r="L1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24" t="s">
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="21" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="14" t="s">
         <v>10</v>
       </c>
@@ -1311,11 +1315,11 @@
       <c r="I3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="25"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1328,27 +1332,27 @@
         <v>15</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="18">
         <v>1</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="18" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A5" s="27"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1359,19 +1363,19 @@
         <v>22</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="27"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="19"/>
       <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A6" s="27"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
@@ -1382,19 +1386,19 @@
         <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="28"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A7" s="27"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
@@ -1405,27 +1409,27 @@
         <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="23">
         <v>1</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="18" t="s">
         <v>20</v>
       </c>
       <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A8" s="27"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
@@ -1436,19 +1440,19 @@
         <v>27</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="27"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A9" s="27"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
@@ -1459,19 +1463,19 @@
         <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="28"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="17"/>
     </row>
     <row r="10" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A10" s="27"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
@@ -1482,27 +1486,27 @@
         <v>30</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="23">
         <v>1</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="23">
         <v>7.7</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="23">
         <v>7.8</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="18" t="s">
         <v>20</v>
       </c>
       <c r="K10" s="17"/>
     </row>
     <row r="11" spans="1:12" ht="45.75" customHeight="1">
-      <c r="A11" s="27"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1513,19 +1517,19 @@
         <v>32</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="27"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="17"/>
     </row>
     <row r="12" spans="1:12" ht="48" customHeight="1">
-      <c r="A12" s="27"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
@@ -1536,19 +1540,19 @@
         <v>33</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="28"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="20"/>
       <c r="K12" s="17"/>
     </row>
     <row r="13" spans="1:12" ht="47.1" customHeight="1">
-      <c r="A13" s="27"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
@@ -1559,26 +1563,26 @@
         <v>35</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="23">
         <v>1</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="23">
         <v>7.7</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="23">
         <v>7.8</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="39" customHeight="1">
-      <c r="A14" s="27"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1589,18 +1593,18 @@
         <v>37</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="27"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:12" ht="36.950000000000003" customHeight="1">
-      <c r="A15" s="27"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
@@ -1611,18 +1615,18 @@
         <v>38</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="28"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:12" ht="33" customHeight="1">
-      <c r="A16" s="27"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
@@ -1633,26 +1637,26 @@
         <v>40</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="23">
         <v>1</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="23">
         <v>7.8</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="23">
         <v>7.9</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="29.1" customHeight="1">
-      <c r="A17" s="27"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
         <v>41</v>
       </c>
@@ -1663,18 +1667,18 @@
         <v>42</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="27"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A18" s="28"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="4" t="s">
         <v>43</v>
       </c>
@@ -1685,18 +1689,18 @@
         <v>43</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="28"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10" ht="24" customHeight="1">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1709,26 +1713,26 @@
         <v>46</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="23">
         <v>1</v>
       </c>
-      <c r="H19" s="41">
+      <c r="H19" s="23">
         <v>7.8</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19" s="23">
         <v>7.9</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="24" customHeight="1">
-      <c r="A20" s="28"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="4" t="s">
         <v>47</v>
       </c>
@@ -1739,18 +1743,18 @@
         <v>48</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="28"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10" ht="27" customHeight="1">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="32" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1762,8 +1766,8 @@
       <c r="D21" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>16</v>
+      <c r="E21" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>52</v>
@@ -1782,7 +1786,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="27" customHeight="1">
-      <c r="A22" s="30"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="5" t="s">
         <v>54</v>
       </c>
@@ -1792,8 +1796,8 @@
       <c r="D22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>16</v>
+      <c r="E22" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>52</v>
@@ -1812,7 +1816,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="23.1" customHeight="1">
-      <c r="A23" s="30"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="5" t="s">
         <v>56</v>
       </c>
@@ -1822,8 +1826,8 @@
       <c r="D23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>16</v>
+      <c r="E23" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>52</v>
@@ -1842,7 +1846,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A24" s="30"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="5" t="s">
         <v>58</v>
       </c>
@@ -1852,8 +1856,8 @@
       <c r="D24" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>16</v>
+      <c r="E24" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>52</v>
@@ -1872,7 +1876,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="23.1" customHeight="1">
-      <c r="A25" s="30"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="5" t="s">
         <v>60</v>
       </c>
@@ -1882,8 +1886,8 @@
       <c r="D25" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>16</v>
+      <c r="E25" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>52</v>
@@ -1902,7 +1906,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="26.1" customHeight="1">
-      <c r="A26" s="31"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="5" t="s">
         <v>62</v>
       </c>
@@ -1912,8 +1916,8 @@
       <c r="D26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>16</v>
+      <c r="E26" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="F26" s="5" t="s">
         <v>52</v>
@@ -1932,7 +1936,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="27" customHeight="1">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="32" t="s">
         <v>64</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -1944,8 +1948,8 @@
       <c r="D27" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>16</v>
+      <c r="E27" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>52</v>
@@ -1964,7 +1968,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="24" customHeight="1">
-      <c r="A28" s="30"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="5" t="s">
         <v>67</v>
       </c>
@@ -1974,8 +1978,8 @@
       <c r="D28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>16</v>
+      <c r="E28" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="F28" s="5" t="s">
         <v>52</v>
@@ -1994,7 +1998,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="24" customHeight="1">
-      <c r="A29" s="30"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="5" t="s">
         <v>69</v>
       </c>
@@ -2004,8 +2008,8 @@
       <c r="D29" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>16</v>
+      <c r="E29" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="F29" s="5" t="s">
         <v>52</v>
@@ -2024,7 +2028,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="24" customHeight="1">
-      <c r="A30" s="30"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="5" t="s">
         <v>71</v>
       </c>
@@ -2034,8 +2038,8 @@
       <c r="D30" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>16</v>
+      <c r="E30" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="F30" s="5" t="s">
         <v>52</v>
@@ -2054,7 +2058,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="27" customHeight="1">
-      <c r="A31" s="30"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="5" t="s">
         <v>73</v>
       </c>
@@ -2064,8 +2068,8 @@
       <c r="D31" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>16</v>
+      <c r="E31" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>52</v>
@@ -2084,7 +2088,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="27" customHeight="1">
-      <c r="A32" s="31"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="5" t="s">
         <v>75</v>
       </c>
@@ -2094,8 +2098,8 @@
       <c r="D32" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>16</v>
+      <c r="E32" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>52</v>
@@ -2114,7 +2118,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="35" t="s">
         <v>77</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -2146,7 +2150,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="27" customHeight="1">
-      <c r="A34" s="33"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="5" t="s">
         <v>80</v>
       </c>
@@ -2176,7 +2180,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="26.1" customHeight="1">
-      <c r="A35" s="33"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="5" t="s">
         <v>82</v>
       </c>
@@ -2206,7 +2210,7 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="27" customHeight="1">
-      <c r="A36" s="34"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="5" t="s">
         <v>84</v>
       </c>
@@ -2236,7 +2240,7 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="30" customHeight="1">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="38" t="s">
         <v>86</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -2268,7 +2272,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="27" customHeight="1">
-      <c r="A38" s="35"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="8" t="s">
         <v>91</v>
       </c>
@@ -2298,7 +2302,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="30" customHeight="1">
-      <c r="A39" s="35"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="8" t="s">
         <v>92</v>
       </c>
@@ -2328,7 +2332,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="26.1" customHeight="1">
-      <c r="A40" s="35"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="8" t="s">
         <v>93</v>
       </c>
@@ -2358,7 +2362,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="32.1" customHeight="1">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="39" t="s">
         <v>94</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -2390,7 +2394,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A42" s="37"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="8" t="s">
         <v>97</v>
       </c>
@@ -2420,7 +2424,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="37"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="8" t="s">
         <v>99</v>
       </c>
@@ -2450,7 +2454,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="27.95" customHeight="1">
-      <c r="A44" s="37"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="8" t="s">
         <v>101</v>
       </c>
@@ -2480,7 +2484,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="27" customHeight="1">
-      <c r="A45" s="37"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="8" t="s">
         <v>103</v>
       </c>
@@ -2510,7 +2514,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="30" customHeight="1">
-      <c r="A46" s="37"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="8" t="s">
         <v>105</v>
       </c>
@@ -2520,8 +2524,8 @@
       <c r="D46" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>16</v>
+      <c r="E46" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="F46" s="8" t="s">
         <v>89</v>
@@ -2540,7 +2544,7 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="27" customHeight="1">
-      <c r="A47" s="37"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="8" t="s">
         <v>107</v>
       </c>
@@ -2550,8 +2554,8 @@
       <c r="D47" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>16</v>
+      <c r="E47" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="F47" s="8" t="s">
         <v>89</v>
@@ -2570,7 +2574,7 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="27" customHeight="1">
-      <c r="A48" s="37"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="8" t="s">
         <v>109</v>
       </c>
@@ -2580,8 +2584,8 @@
       <c r="D48" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>16</v>
+      <c r="E48" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="F48" s="8" t="s">
         <v>89</v>
@@ -2600,7 +2604,7 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="33" customHeight="1">
-      <c r="A49" s="37"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="8" t="s">
         <v>110</v>
       </c>
@@ -2610,8 +2614,8 @@
       <c r="D49" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>16</v>
+      <c r="E49" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>89</v>
@@ -2630,7 +2634,7 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="30" customHeight="1">
-      <c r="A50" s="37"/>
+      <c r="A50" s="40"/>
       <c r="B50" s="8" t="s">
         <v>112</v>
       </c>
@@ -2640,8 +2644,8 @@
       <c r="D50" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>16</v>
+      <c r="E50" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="F50" s="8" t="s">
         <v>89</v>
@@ -2660,7 +2664,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="30" customHeight="1">
-      <c r="A51" s="38"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="8" t="s">
         <v>114</v>
       </c>
@@ -2670,8 +2674,8 @@
       <c r="D51" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E51" s="8" t="s">
-        <v>16</v>
+      <c r="E51" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>89</v>
@@ -2691,30 +2695,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A41:A51"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A2:A3"/>
@@ -2731,6 +2711,30 @@
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A41:A51"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J13:J15"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.43263888888888902" right="0.35416666666666702" top="0.39305555555555599" bottom="0.31458333333333299" header="0.3" footer="0.3"/>
@@ -2743,7 +2747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2764,19 +2768,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="52.5" customHeight="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="44"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
@@ -2795,30 +2799,30 @@
       <c r="AA1" s="11"/>
     </row>
     <row r="2" spans="1:27" ht="18" customHeight="1">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="50" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="53" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="50" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="12"/>
@@ -2840,11 +2844,11 @@
       <c r="AA2" s="11"/>
     </row>
     <row r="3" spans="1:27" ht="18" customHeight="1">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="56"/>
       <c r="G3" s="3" t="s">
         <v>10</v>
@@ -2855,7 +2859,7 @@
       <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="54"/>
+      <c r="J3" s="51"/>
       <c r="K3" s="13"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
@@ -2875,7 +2879,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2893,16 +2897,16 @@
       <c r="F4" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="18">
         <v>1</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="18" t="s">
         <v>118</v>
       </c>
       <c r="K4" s="13"/>
@@ -2924,7 +2928,7 @@
       <c r="AA4" s="11"/>
     </row>
     <row r="5" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A5" s="27"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
@@ -2940,10 +2944,10 @@
       <c r="F5" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="27"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="19"/>
       <c r="K5" s="13"/>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
@@ -2963,7 +2967,7 @@
       <c r="AA5" s="11"/>
     </row>
     <row r="6" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A6" s="27"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
@@ -2979,10 +2983,10 @@
       <c r="F6" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="28"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="20"/>
       <c r="K6" s="13"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
@@ -3002,7 +3006,7 @@
       <c r="AA6" s="11"/>
     </row>
     <row r="7" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A7" s="27"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
@@ -3018,16 +3022,16 @@
       <c r="F7" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="23">
         <v>1</v>
       </c>
-      <c r="H7" s="47" t="s">
+      <c r="H7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="I7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="18" t="s">
         <v>118</v>
       </c>
       <c r="K7" s="13"/>
@@ -3049,7 +3053,7 @@
       <c r="AA7" s="11"/>
     </row>
     <row r="8" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A8" s="27"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
@@ -3065,10 +3069,10 @@
       <c r="F8" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="27"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="13"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -3088,7 +3092,7 @@
       <c r="AA8" s="11"/>
     </row>
     <row r="9" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A9" s="27"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
@@ -3104,10 +3108,10 @@
       <c r="F9" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="28"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="13"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -3127,7 +3131,7 @@
       <c r="AA9" s="11"/>
     </row>
     <row r="10" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A10" s="27"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
@@ -3143,16 +3147,16 @@
       <c r="F10" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="23">
         <v>1</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="23">
         <v>7.7</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="23">
         <v>7.8</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="18" t="s">
         <v>118</v>
       </c>
       <c r="K10" s="13"/>
@@ -3174,7 +3178,7 @@
       <c r="AA10" s="11"/>
     </row>
     <row r="11" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A11" s="27"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
@@ -3190,10 +3194,10 @@
       <c r="F11" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="27"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="13"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -3213,7 +3217,7 @@
       <c r="AA11" s="11"/>
     </row>
     <row r="12" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A12" s="27"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
@@ -3229,10 +3233,10 @@
       <c r="F12" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="28"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="20"/>
       <c r="K12" s="13"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
@@ -3252,7 +3256,7 @@
       <c r="AA12" s="11"/>
     </row>
     <row r="13" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A13" s="27"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
@@ -3268,16 +3272,16 @@
       <c r="F13" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="23">
         <v>1</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="23">
         <v>7.7</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="23">
         <v>7.8</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="18" t="s">
         <v>118</v>
       </c>
       <c r="K13" s="13"/>
@@ -3299,7 +3303,7 @@
       <c r="AA13" s="11"/>
     </row>
     <row r="14" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A14" s="27"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3315,10 +3319,10 @@
       <c r="F14" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="27"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="19"/>
       <c r="K14" s="13"/>
       <c r="L14" s="11"/>
       <c r="M14" s="11"/>
@@ -3338,7 +3342,7 @@
       <c r="AA14" s="11"/>
     </row>
     <row r="15" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A15" s="27"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
@@ -3354,10 +3358,10 @@
       <c r="F15" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="28"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="20"/>
       <c r="K15" s="13"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
@@ -3377,7 +3381,7 @@
       <c r="AA15" s="11"/>
     </row>
     <row r="16" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A16" s="27"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
@@ -3393,16 +3397,16 @@
       <c r="F16" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="23">
         <v>1</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="23">
         <v>7.8</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="23">
         <v>7.9</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="18" t="s">
         <v>118</v>
       </c>
       <c r="K16" s="13"/>
@@ -3424,7 +3428,7 @@
       <c r="AA16" s="11"/>
     </row>
     <row r="17" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A17" s="27"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="4" t="s">
         <v>41</v>
       </c>
@@ -3440,10 +3444,10 @@
       <c r="F17" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="27"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="19"/>
       <c r="K17" s="13"/>
       <c r="L17" s="11"/>
       <c r="M17" s="11"/>
@@ -3463,7 +3467,7 @@
       <c r="AA17" s="11"/>
     </row>
     <row r="18" spans="1:27" ht="33.75" customHeight="1">
-      <c r="A18" s="28"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="4" t="s">
         <v>43</v>
       </c>
@@ -3479,10 +3483,10 @@
       <c r="F18" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="28"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="20"/>
       <c r="K18" s="13"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
@@ -3502,7 +3506,7 @@
       <c r="AA18" s="11"/>
     </row>
     <row r="19" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -3520,16 +3524,16 @@
       <c r="F19" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="23">
         <v>1</v>
       </c>
-      <c r="H19" s="41">
+      <c r="H19" s="23">
         <v>7.8</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19" s="23">
         <v>7.9</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="18" t="s">
         <v>118</v>
       </c>
       <c r="K19" s="13"/>
@@ -3551,7 +3555,7 @@
       <c r="AA19" s="11"/>
     </row>
     <row r="20" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A20" s="28"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="4" t="s">
         <v>47</v>
       </c>
@@ -3567,10 +3571,10 @@
       <c r="F20" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="28"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="13"/>
       <c r="L20" s="11"/>
       <c r="M20" s="11"/>
@@ -3590,7 +3594,7 @@
       <c r="AA20" s="11"/>
     </row>
     <row r="21" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="32" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -3639,7 +3643,7 @@
       <c r="AA21" s="11"/>
     </row>
     <row r="22" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A22" s="30"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="5" t="s">
         <v>54</v>
       </c>
@@ -3686,7 +3690,7 @@
       <c r="AA22" s="11"/>
     </row>
     <row r="23" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A23" s="30"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="5" t="s">
         <v>56</v>
       </c>
@@ -3733,7 +3737,7 @@
       <c r="AA23" s="11"/>
     </row>
     <row r="24" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A24" s="30"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="5" t="s">
         <v>58</v>
       </c>
@@ -3780,7 +3784,7 @@
       <c r="AA24" s="11"/>
     </row>
     <row r="25" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A25" s="30"/>
+      <c r="A25" s="33"/>
       <c r="B25" s="5" t="s">
         <v>60</v>
       </c>
@@ -3827,7 +3831,7 @@
       <c r="AA25" s="11"/>
     </row>
     <row r="26" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A26" s="31"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="5" t="s">
         <v>62</v>
       </c>
@@ -3874,7 +3878,7 @@
       <c r="AA26" s="11"/>
     </row>
     <row r="27" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="32" t="s">
         <v>64</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -3923,7 +3927,7 @@
       <c r="AA27" s="11"/>
     </row>
     <row r="28" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A28" s="30"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="5" t="s">
         <v>67</v>
       </c>
@@ -3970,7 +3974,7 @@
       <c r="AA28" s="11"/>
     </row>
     <row r="29" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A29" s="30"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="5" t="s">
         <v>69</v>
       </c>
@@ -4017,7 +4021,7 @@
       <c r="AA29" s="11"/>
     </row>
     <row r="30" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A30" s="30"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="5" t="s">
         <v>71</v>
       </c>
@@ -4064,7 +4068,7 @@
       <c r="AA30" s="11"/>
     </row>
     <row r="31" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A31" s="30"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="5" t="s">
         <v>73</v>
       </c>
@@ -4111,7 +4115,7 @@
       <c r="AA31" s="11"/>
     </row>
     <row r="32" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A32" s="31"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="5" t="s">
         <v>75</v>
       </c>
@@ -4158,7 +4162,7 @@
       <c r="AA32" s="11"/>
     </row>
     <row r="33" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="35" t="s">
         <v>77</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -4207,7 +4211,7 @@
       <c r="AA33" s="11"/>
     </row>
     <row r="34" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A34" s="33"/>
+      <c r="A34" s="36"/>
       <c r="B34" s="5" t="s">
         <v>80</v>
       </c>
@@ -4254,7 +4258,7 @@
       <c r="AA34" s="11"/>
     </row>
     <row r="35" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A35" s="33"/>
+      <c r="A35" s="36"/>
       <c r="B35" s="5" t="s">
         <v>82</v>
       </c>
@@ -4301,7 +4305,7 @@
       <c r="AA35" s="11"/>
     </row>
     <row r="36" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A36" s="34"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="5" t="s">
         <v>84</v>
       </c>
@@ -4348,7 +4352,7 @@
       <c r="AA36" s="11"/>
     </row>
     <row r="37" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="38" t="s">
         <v>86</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -4397,7 +4401,7 @@
       <c r="AA37" s="11"/>
     </row>
     <row r="38" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A38" s="35"/>
+      <c r="A38" s="38"/>
       <c r="B38" s="8" t="s">
         <v>91</v>
       </c>
@@ -4444,7 +4448,7 @@
       <c r="AA38" s="11"/>
     </row>
     <row r="39" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A39" s="35"/>
+      <c r="A39" s="38"/>
       <c r="B39" s="8" t="s">
         <v>92</v>
       </c>
@@ -4491,7 +4495,7 @@
       <c r="AA39" s="11"/>
     </row>
     <row r="40" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A40" s="35"/>
+      <c r="A40" s="38"/>
       <c r="B40" s="8" t="s">
         <v>93</v>
       </c>
@@ -4538,7 +4542,7 @@
       <c r="AA40" s="11"/>
     </row>
     <row r="41" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="39" t="s">
         <v>94</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -4587,7 +4591,7 @@
       <c r="AA41" s="11"/>
     </row>
     <row r="42" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A42" s="37"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="8" t="s">
         <v>97</v>
       </c>
@@ -4634,7 +4638,7 @@
       <c r="AA42" s="11"/>
     </row>
     <row r="43" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A43" s="37"/>
+      <c r="A43" s="40"/>
       <c r="B43" s="8" t="s">
         <v>99</v>
       </c>
@@ -4681,7 +4685,7 @@
       <c r="AA43" s="11"/>
     </row>
     <row r="44" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A44" s="37"/>
+      <c r="A44" s="40"/>
       <c r="B44" s="8" t="s">
         <v>101</v>
       </c>
@@ -4728,7 +4732,7 @@
       <c r="AA44" s="11"/>
     </row>
     <row r="45" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A45" s="37"/>
+      <c r="A45" s="40"/>
       <c r="B45" s="8" t="s">
         <v>103</v>
       </c>
@@ -4775,7 +4779,7 @@
       <c r="AA45" s="11"/>
     </row>
     <row r="46" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A46" s="37"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="8" t="s">
         <v>105</v>
       </c>
@@ -4822,7 +4826,7 @@
       <c r="AA46" s="11"/>
     </row>
     <row r="47" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A47" s="37"/>
+      <c r="A47" s="40"/>
       <c r="B47" s="8" t="s">
         <v>107</v>
       </c>
@@ -4869,7 +4873,7 @@
       <c r="AA47" s="11"/>
     </row>
     <row r="48" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A48" s="37"/>
+      <c r="A48" s="40"/>
       <c r="B48" s="8" t="s">
         <v>109</v>
       </c>
@@ -4916,7 +4920,7 @@
       <c r="AA48" s="11"/>
     </row>
     <row r="49" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A49" s="37"/>
+      <c r="A49" s="40"/>
       <c r="B49" s="8" t="s">
         <v>110</v>
       </c>
@@ -4963,7 +4967,7 @@
       <c r="AA49" s="11"/>
     </row>
     <row r="50" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A50" s="37"/>
+      <c r="A50" s="40"/>
       <c r="B50" s="8" t="s">
         <v>112</v>
       </c>
@@ -5010,7 +5014,7 @@
       <c r="AA50" s="11"/>
     </row>
     <row r="51" spans="1:27" ht="45.75" customHeight="1">
-      <c r="A51" s="38"/>
+      <c r="A51" s="41"/>
       <c r="B51" s="8" t="s">
         <v>114</v>
       </c>
@@ -9379,30 +9383,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I4:I6"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="A21:A26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A41:A51"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="A2:A3"/>
@@ -9419,6 +9399,30 @@
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="G16:G18"/>
     <mergeCell ref="G19:G20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A41:A51"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I4:I6"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J13:J15"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.43263888888888902" right="0.35416666666666702" top="0.39305555555555599" bottom="0.31458333333333299" header="0.3" footer="0.3"/>
